--- a/tests/cascade_spreadsheet/cascade_model_simple.xlsx
+++ b/tests/cascade_spreadsheet/cascade_model_simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>Code Label</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>Deaths</t>
+  </si>
+  <si>
+    <t>rec_label</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1320,32 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/tests/cascade_spreadsheet/cascade_model_simple.xlsx
+++ b/tests/cascade_spreadsheet/cascade_model_simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId4"/>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
   <si>
     <t>Code Label</t>
   </si>
@@ -178,9 +178,6 @@
     <t>alive</t>
   </si>
   <si>
-    <t>Active prevalence</t>
-  </si>
-  <si>
     <t>lt_treat</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>Population Size</t>
   </si>
   <si>
-    <t>test_act_prev</t>
-  </si>
-  <si>
     <t>Population Sizes</t>
   </si>
   <si>
@@ -338,6 +332,21 @@
   </si>
   <si>
     <t>rec_label</t>
+  </si>
+  <si>
+    <t>Calibrate?</t>
+  </si>
+  <si>
+    <t>Plot Value</t>
+  </si>
+  <si>
+    <t>Special Rules</t>
+  </si>
+  <si>
+    <t>avg_contacts_in</t>
+  </si>
+  <si>
+    <t>(at_treat*0.05+0.25*ac_inf+0.1*rec_label)/alive</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -453,6 +462,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,10 +800,10 @@
         <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>44</v>
@@ -861,24 +876,24 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +907,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H5" sqref="H5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1014,10 +1029,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1028,26 +1043,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="2"/>
+    <col min="6" max="7" width="14.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>46</v>
@@ -1067,94 +1082,118 @@
         <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="10">
         <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="6"/>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10">
         <v>3</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="6"/>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1162,7 +1201,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
@@ -1170,21 +1209,27 @@
       <c r="E5" s="8">
         <v>10000</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="7"/>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1192,35 +1237,41 @@
         <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="7"/>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -1228,124 +1279,136 @@
       <c r="E7" s="8">
         <v>200000</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-1</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10">
         <v>-1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="Q12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,22 +1417,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="119.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,16 +1450,22 @@
         <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1403,14 +1476,17 @@
         <v>32</v>
       </c>
       <c r="D2" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1418,18 +1494,23 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.02</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1437,210 +1518,260 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.01</v>
+        <v>68</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
         <v>99</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2">
         <v>3</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1663,34 +1794,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
